--- a/CARTÃO DE MEMBROS.xlsx
+++ b/CARTÃO DE MEMBROS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoe\Desktop\CCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DCF1FF-7481-4575-95E1-8236903FE6C7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E07B32A-F97A-4198-BBE7-D550408DB42E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -978,7 +978,7 @@
                   <a:pPr algn="ctr"/>
                   <a:r>
                     <a:rPr lang="pt-BR" sz="1400" b="1"/>
-                    <a:t>CCC - Clube de Construtores Campistas</a:t>
+                    <a:t>NOME DA IGREJA</a:t>
                   </a:r>
                 </a:p>
               </xdr:txBody>
@@ -1631,10 +1631,10 @@
                 </xdr:nvGrpSpPr>
                 <xdr:grpSpPr>
                   <a:xfrm>
-                    <a:off x="4785952" y="742950"/>
-                    <a:ext cx="3991702" cy="2409825"/>
-                    <a:chOff x="4785952" y="742950"/>
-                    <a:chExt cx="3991702" cy="2409825"/>
+                    <a:off x="4645275" y="742950"/>
+                    <a:ext cx="4044455" cy="2162175"/>
+                    <a:chOff x="4645275" y="742950"/>
+                    <a:chExt cx="4044455" cy="2162175"/>
                   </a:xfrm>
                 </xdr:grpSpPr>
                 <xdr:sp macro="" textlink="">
@@ -1650,7 +1650,7 @@
                   </xdr:nvSpPr>
                   <xdr:spPr>
                     <a:xfrm>
-                      <a:off x="4785952" y="2695574"/>
+                      <a:off x="4645275" y="2447924"/>
                       <a:ext cx="3991702" cy="457201"/>
                     </a:xfrm>
                     <a:prstGeom prst="rect">
@@ -1682,7 +1682,7 @@
                       <a:pPr algn="ctr"/>
                       <a:r>
                         <a:rPr lang="pt-BR" sz="1100"/>
-                        <a:t>ENDEREÇO DA IGREJA</a:t>
+                        <a:t>ENDEREÇO DA IGREJA:</a:t>
                       </a:r>
                     </a:p>
                   </xdr:txBody>
@@ -1700,7 +1700,7 @@
                   </xdr:nvSpPr>
                   <xdr:spPr>
                     <a:xfrm>
-                      <a:off x="5012347" y="2219325"/>
+                      <a:off x="5012347" y="2038350"/>
                       <a:ext cx="3524250" cy="238125"/>
                     </a:xfrm>
                     <a:prstGeom prst="rect">
@@ -1732,7 +1732,7 @@
                       <a:pPr algn="ctr"/>
                       <a:r>
                         <a:rPr lang="pt-BR" sz="1400" b="1"/>
-                        <a:t>CCC - Clube de Construtores Campistas</a:t>
+                        <a:t>NOME DA IGREJA</a:t>
                       </a:r>
                     </a:p>
                   </xdr:txBody>
@@ -1950,7 +1950,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="1028700" y="2695575"/>
+                  <a:off x="942975" y="2466975"/>
                   <a:ext cx="1908969" cy="266700"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -1981,7 +1981,7 @@
                 <a:p>
                   <a:r>
                     <a:rPr lang="pt-BR" sz="1100"/>
-                    <a:t>RESPONSAVEL  DA IGREJA</a:t>
+                    <a:t>RESPONSAVEL  DA IGREJA:</a:t>
                   </a:r>
                 </a:p>
               </xdr:txBody>
@@ -1999,7 +1999,7 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="2771775" y="2695575"/>
+                  <a:off x="2828925" y="2457450"/>
                   <a:ext cx="1908969" cy="266700"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
@@ -2100,7 +2100,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="733425" y="2038350"/>
+            <a:off x="733425" y="1924050"/>
             <a:ext cx="1908969" cy="266700"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -2131,7 +2131,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="pt-BR" sz="1100" b="1"/>
-              <a:t>CNPJ DA IGREJA</a:t>
+              <a:t>CNPJ DA IGREJA:</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -2139,65 +2139,4084 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>412837</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>184753</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>582085</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160249</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="Imagem 170" descr="C:\Users\manoe\Desktop\CCC\Logo ccc_arquivos\Para capa face.png">
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="CaixaDeTexto 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6616E8-0200-416E-9246-9BA9F860F74B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FACFCE-A453-437F-99E9-A6C967AA0410}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4815504" y="184753"/>
-          <a:ext cx="1396914" cy="737496"/>
+          <a:off x="952500" y="1924050"/>
+          <a:ext cx="2809875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0"/>
+            <a:t>CNPJ DA IGREJA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>156825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="Grupo 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA72FFA0-9C87-4708-B7A1-7F91B809EF35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="85725" y="2981325"/>
+          <a:ext cx="9356775" cy="2700000"/>
+          <a:chOff x="695325" y="314325"/>
+          <a:chExt cx="9356775" cy="2700000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="62" name="Grupo 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A30C3A8-93E1-40A2-95E7-78AB4D194F03}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="695325" y="314325"/>
+            <a:ext cx="9356775" cy="2700000"/>
+            <a:chOff x="695325" y="323850"/>
+            <a:chExt cx="9356775" cy="2700000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="64" name="Grupo 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388E17C9-9EB1-4C4B-9198-1323F4A2D508}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5372100" y="323850"/>
+              <a:ext cx="4680000" cy="2700000"/>
+              <a:chOff x="4610100" y="685800"/>
+              <a:chExt cx="4320000" cy="2700000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="79" name="Quadro 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6339EE7-6FC9-45DE-970E-0BD29326F4F9}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4610100" y="685800"/>
+                <a:ext cx="4320000" cy="2700000"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3728985 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2908061 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2949839 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX0" y="connsiteY0"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX1" y="connsiteY1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX2" y="connsiteY2"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX3" y="connsiteY3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX4" y="connsiteY4"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX5" y="connsiteY5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX6" y="connsiteY6"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX7" y="connsiteY7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX8" y="connsiteY8"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX9" y="connsiteY9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX10" y="connsiteY10"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="l" t="t" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="4324350" h="3162300">
+                    <a:moveTo>
+                      <a:pt x="0" y="0"/>
+                    </a:moveTo>
+                    <a:lnTo>
+                      <a:pt x="3686175" y="9525"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="4324350" y="0"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="4324350" y="3162300"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="0" y="3162300"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="0" y="0"/>
+                    </a:lnTo>
+                    <a:close/>
+                    <a:moveTo>
+                      <a:pt x="2942691" y="549323"/>
+                    </a:moveTo>
+                    <a:lnTo>
+                      <a:pt x="2949839" y="738183"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="3757608" y="728658"/>
+                    </a:lnTo>
+                    <a:cubicBezTo>
+                      <a:pt x="3757602" y="661986"/>
+                      <a:pt x="3757595" y="595314"/>
+                      <a:pt x="3757589" y="528642"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="2942691" y="549323"/>
+                    </a:lnTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="80" name="Grupo 29">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56082DC8-8D18-4A23-BE9B-0CDF65F08568}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="4638675" y="742950"/>
+                <a:ext cx="4236427" cy="2543176"/>
+                <a:chOff x="4638675" y="742950"/>
+                <a:chExt cx="4236427" cy="2543176"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="81" name="Retângulo de cantos arredondados 30">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F31280E-85E6-46BA-A797-ACC31E9D8F3C}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4800600" y="752475"/>
+                  <a:ext cx="741485" cy="619125"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>Logo</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="82" name="Retângulo de cantos arredondados 31">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C35340-C9A3-4F14-AA20-EAEF3602BFBA}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5770685" y="742950"/>
+                  <a:ext cx="3053863" cy="638175"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="2000"/>
+                    <a:t>IDENTIDADE DE MEMBRO</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="pt-BR" sz="2000"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="83" name="Retângulo de cantos arredondados 32">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93FA4976-1978-421B-914E-3AB45ACEC8EF}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7665427" y="1838326"/>
+                  <a:ext cx="1209675" cy="1447800"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln cmpd="thinThick"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>FOTO</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="84" name="CaixaDeTexto 83">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9974FA7D-B9E7-4200-A4F9-EA68E721D327}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4810125" y="2038350"/>
+                  <a:ext cx="1762125" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>EMITIDO EM: 00/00/0000</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="85" name="CaixaDeTexto 84">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5449001B-7A78-4136-B1C7-D0126004D3F3}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5038725" y="1485900"/>
+                  <a:ext cx="3524250" cy="238125"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1400" b="1"/>
+                    <a:t>NOME DA IGREJA</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="86" name="CaixaDeTexto 85">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F25BAAA-01E8-44A8-8699-4EAD56E9E345}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4638675" y="2581275"/>
+                  <a:ext cx="2981325" cy="352425"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1600" b="1"/>
+                    <a:t>NOME DO MEMBRO</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="87" name="CaixaDeTexto 86">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCC1A470-424A-4DC0-8B58-991B757307BB}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7297330" y="1123950"/>
+                  <a:ext cx="381000" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                    <a:t>Nº</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="65" name="Grupo 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D405B3-C516-47E7-A206-2CBD1BE65CF3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="695325" y="323850"/>
+              <a:ext cx="4680000" cy="2700000"/>
+              <a:chOff x="695325" y="323850"/>
+              <a:chExt cx="4680000" cy="2700000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="66" name="Grupo 38">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB547A7-FA79-4E2E-AE25-95AFA52C9611}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="695325" y="323850"/>
+                <a:ext cx="4680000" cy="2700000"/>
+                <a:chOff x="695325" y="323850"/>
+                <a:chExt cx="4680000" cy="2700000"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="68" name="Grupo 14">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9555AF30-1BE3-40C2-88CD-0C6CC672FB02}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="695325" y="323850"/>
+                  <a:ext cx="4680000" cy="2700000"/>
+                  <a:chOff x="4610100" y="685800"/>
+                  <a:chExt cx="4320000" cy="2700000"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="73" name="Quadro 11">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B908C5-692B-4E9C-A1AA-87E597B6352F}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4610100" y="685800"/>
+                    <a:ext cx="4320000" cy="2700000"/>
+                  </a:xfrm>
+                  <a:custGeom>
+                    <a:avLst/>
+                    <a:gdLst>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3728985 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2908061 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2949839 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                    </a:gdLst>
+                    <a:ahLst/>
+                    <a:cxnLst>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX0" y="connsiteY0"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX1" y="connsiteY1"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX2" y="connsiteY2"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX3" y="connsiteY3"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX4" y="connsiteY4"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX5" y="connsiteY5"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX6" y="connsiteY6"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX7" y="connsiteY7"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX8" y="connsiteY8"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX9" y="connsiteY9"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX10" y="connsiteY10"/>
+                      </a:cxn>
+                    </a:cxnLst>
+                    <a:rect l="l" t="t" r="r" b="b"/>
+                    <a:pathLst>
+                      <a:path w="4324350" h="3162300">
+                        <a:moveTo>
+                          <a:pt x="0" y="0"/>
+                        </a:moveTo>
+                        <a:lnTo>
+                          <a:pt x="3686175" y="9525"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="4324350" y="0"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="4324350" y="3162300"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="0" y="3162300"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="0" y="0"/>
+                        </a:lnTo>
+                        <a:close/>
+                        <a:moveTo>
+                          <a:pt x="2942691" y="549323"/>
+                        </a:moveTo>
+                        <a:lnTo>
+                          <a:pt x="2949839" y="738183"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="3757608" y="728658"/>
+                        </a:lnTo>
+                        <a:cubicBezTo>
+                          <a:pt x="3757602" y="661986"/>
+                          <a:pt x="3757595" y="595314"/>
+                          <a:pt x="3757589" y="528642"/>
+                        </a:cubicBezTo>
+                        <a:lnTo>
+                          <a:pt x="2942691" y="549323"/>
+                        </a:lnTo>
+                        <a:close/>
+                      </a:path>
+                    </a:pathLst>
+                  </a:custGeom>
+                  <a:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </a:blipFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="pt-BR" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="74" name="Grupo 13">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C53BBDAF-CA0C-4734-8C5B-146D2FFCA814}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="4645275" y="742950"/>
+                    <a:ext cx="4044455" cy="2162175"/>
+                    <a:chOff x="4645275" y="742950"/>
+                    <a:chExt cx="4044455" cy="2162175"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="75" name="CaixaDeTexto 74">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E76922A-54CF-4C4D-AE98-9FC298D9B9F5}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="4645275" y="2447924"/>
+                      <a:ext cx="3991702" cy="457201"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1100"/>
+                        <a:t>ENDEREÇO DA IGREJA:</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="76" name="CaixaDeTexto 75">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085B30BE-D037-4C0C-A30D-5179A824DA74}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="5012347" y="2038350"/>
+                      <a:ext cx="3524250" cy="238125"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1400" b="1"/>
+                        <a:t>NOME DA IGREJA</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="77" name="CaixaDeTexto 76">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D10B354-52CC-4418-979B-07FDF823EB08}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="4963991" y="742950"/>
+                      <a:ext cx="3725739" cy="352425"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1600" b="1"/>
+                        <a:t>NOME DO MEMBRO</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="78" name="CaixaDeTexto 77">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F816DF2B-E1C1-4004-9DEB-F87E93CC2041}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="7297330" y="1123950"/>
+                      <a:ext cx="381000" cy="200025"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                        <a:t>Nº</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="69" name="CaixaDeTexto 68">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A12F754-0071-4272-9BEC-6BC44E104798}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="990600" y="1104900"/>
+                  <a:ext cx="2190750" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                    <a:t>MEMBRO DESDE: 00/00/0000</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="70" name="CaixaDeTexto 69">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A42A71-AC6E-496F-983D-5AD7704A066A}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="981075" y="1323975"/>
+                  <a:ext cx="1908969" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                    <a:t>DATA NASC.: 00/00/0000</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="71" name="CaixaDeTexto 70">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8854EE5-F6C6-46DD-93B8-B5B6102F446D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="942975" y="2466975"/>
+                  <a:ext cx="1908969" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>RESPONSAVEL  DA IGREJA:</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="72" name="CaixaDeTexto 71">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D2808E-FA5D-47B7-8559-D5B086D954D1}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2828925" y="2457450"/>
+                  <a:ext cx="1908969" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>ASS.</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="67" name="CaixaDeTexto 66">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A916DABE-3EBB-40CA-A6D4-AE2B368D4138}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3143250" y="1333500"/>
+                <a:ext cx="1908969" cy="266700"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                  <a:t>CPF: 00000000000</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="CaixaDeTexto 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A960E7-0FFA-43E7-9BE9-9C17B8044890}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="733425" y="1924050"/>
+            <a:ext cx="1908969" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1"/>
+              <a:t>CNPJ DA IGREJA:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="CaixaDeTexto 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177505AE-F15C-43B0-9CD3-0657A746F574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="1924050"/>
+          <a:ext cx="2809875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0"/>
+            <a:t>CNPJ DA IGREJA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>156825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="Grupo 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01B3FB7-3867-4EF1-9CED-7B547B6CA8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="85725" y="5838825"/>
+          <a:ext cx="9356775" cy="2700000"/>
+          <a:chOff x="695325" y="314325"/>
+          <a:chExt cx="9356775" cy="2700000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="90" name="Grupo 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7492577B-725F-4871-871E-15E41A7997D2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="695325" y="314325"/>
+            <a:ext cx="9356775" cy="2700000"/>
+            <a:chOff x="695325" y="323850"/>
+            <a:chExt cx="9356775" cy="2700000"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="92" name="Grupo 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC811D8-1E7D-4684-8C9C-E5AB08A0F5B1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="5372100" y="323850"/>
+              <a:ext cx="4680000" cy="2700000"/>
+              <a:chOff x="4610100" y="685800"/>
+              <a:chExt cx="4320000" cy="2700000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="107" name="Quadro 11">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8D32D52-8659-4DC6-B6C2-B914B23F1D51}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4610100" y="685800"/>
+                <a:ext cx="4320000" cy="2700000"/>
+              </a:xfrm>
+              <a:custGeom>
+                <a:avLst/>
+                <a:gdLst>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2681292 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 395292 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3728985 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2908061 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                  <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                  <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                  <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                  <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                  <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                  <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                  <a:gd name="connsiteX7" fmla="*/ 2949839 w 4324350"/>
+                  <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                  <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                  <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                  <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                  <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                  <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                  <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                </a:gdLst>
+                <a:ahLst/>
+                <a:cxnLst>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX0" y="connsiteY0"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX1" y="connsiteY1"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX2" y="connsiteY2"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX3" y="connsiteY3"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX4" y="connsiteY4"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX5" y="connsiteY5"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX6" y="connsiteY6"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX7" y="connsiteY7"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX8" y="connsiteY8"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX9" y="connsiteY9"/>
+                  </a:cxn>
+                  <a:cxn ang="0">
+                    <a:pos x="connsiteX10" y="connsiteY10"/>
+                  </a:cxn>
+                </a:cxnLst>
+                <a:rect l="l" t="t" r="r" b="b"/>
+                <a:pathLst>
+                  <a:path w="4324350" h="3162300">
+                    <a:moveTo>
+                      <a:pt x="0" y="0"/>
+                    </a:moveTo>
+                    <a:lnTo>
+                      <a:pt x="3686175" y="9525"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="4324350" y="0"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="4324350" y="3162300"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="0" y="3162300"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="0" y="0"/>
+                    </a:lnTo>
+                    <a:close/>
+                    <a:moveTo>
+                      <a:pt x="2942691" y="549323"/>
+                    </a:moveTo>
+                    <a:lnTo>
+                      <a:pt x="2949839" y="738183"/>
+                    </a:lnTo>
+                    <a:lnTo>
+                      <a:pt x="3757608" y="728658"/>
+                    </a:lnTo>
+                    <a:cubicBezTo>
+                      <a:pt x="3757602" y="661986"/>
+                      <a:pt x="3757595" y="595314"/>
+                      <a:pt x="3757589" y="528642"/>
+                    </a:cubicBezTo>
+                    <a:lnTo>
+                      <a:pt x="2942691" y="549323"/>
+                    </a:lnTo>
+                    <a:close/>
+                  </a:path>
+                </a:pathLst>
+              </a:custGeom>
+              <a:blipFill>
+                <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                <a:stretch>
+                  <a:fillRect/>
+                </a:stretch>
+              </a:blipFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="pt-BR" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="108" name="Grupo 29">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E98F16D-FD27-4FB2-BC32-9C0C1E9E60EC}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="4638675" y="742950"/>
+                <a:ext cx="4236427" cy="2543176"/>
+                <a:chOff x="4638675" y="742950"/>
+                <a:chExt cx="4236427" cy="2543176"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="109" name="Retângulo de cantos arredondados 30">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA68B8E2-57F2-4494-A904-B4D31CA6AE3F}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4800600" y="752475"/>
+                  <a:ext cx="741485" cy="619125"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>Logo</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="110" name="Retângulo de cantos arredondados 31">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E87CF3D1-DB76-44BA-9D7B-D2E9CAE4BF4B}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5770685" y="742950"/>
+                  <a:ext cx="3053863" cy="638175"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="2000"/>
+                    <a:t>IDENTIDADE DE MEMBRO</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="pt-BR" sz="2000"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="111" name="Retângulo de cantos arredondados 32">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDFAFC6-D289-4C64-A167-9F0FDAAB0C0D}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7665427" y="1838326"/>
+                  <a:ext cx="1209675" cy="1447800"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln cmpd="thinThick"/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>FOTO</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="112" name="CaixaDeTexto 111">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8AFF9D-6CF0-49C9-9003-A7A87835FF49}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4810125" y="2038350"/>
+                  <a:ext cx="1762125" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>EMITIDO EM: 00/00/0000</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="113" name="CaixaDeTexto 112">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C87897B0-94EE-4C42-99FF-CD26BD13D694}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5038725" y="1485900"/>
+                  <a:ext cx="3524250" cy="238125"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1400" b="1"/>
+                    <a:t>NOME DA IGREJA</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="114" name="CaixaDeTexto 113">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C2633E1-871C-4C28-88CE-81000781FAAE}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4638675" y="2581275"/>
+                  <a:ext cx="2981325" cy="352425"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1600" b="1"/>
+                    <a:t>NOME DO MEMBRO</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="115" name="CaixaDeTexto 114">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30F3EDEC-8D51-48D4-8436-268C092E88F7}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="7297330" y="1123950"/>
+                  <a:ext cx="381000" cy="200025"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="ctr"/>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                    <a:t>Nº</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="93" name="Grupo 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{117E7A85-A337-4398-8A05-8B290DC93DE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="695325" y="323850"/>
+              <a:ext cx="4680000" cy="2700000"/>
+              <a:chOff x="695325" y="323850"/>
+              <a:chExt cx="4680000" cy="2700000"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="94" name="Grupo 38">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54AB4DF-FCDF-436C-8B9B-C2B5C7621C38}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="695325" y="323850"/>
+                <a:ext cx="4680000" cy="2700000"/>
+                <a:chOff x="695325" y="323850"/>
+                <a:chExt cx="4680000" cy="2700000"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:grpSp>
+              <xdr:nvGrpSpPr>
+                <xdr:cNvPr id="96" name="Grupo 14">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969A9F40-CDCA-451B-AD82-82521688D30A}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvGrpSpPr/>
+              </xdr:nvGrpSpPr>
+              <xdr:grpSpPr>
+                <a:xfrm>
+                  <a:off x="695325" y="323850"/>
+                  <a:ext cx="4680000" cy="2700000"/>
+                  <a:chOff x="4610100" y="685800"/>
+                  <a:chExt cx="4320000" cy="2700000"/>
+                </a:xfrm>
+              </xdr:grpSpPr>
+              <xdr:sp macro="" textlink="">
+                <xdr:nvSpPr>
+                  <xdr:cNvPr id="101" name="Quadro 11">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9650A04D-5486-46FC-B850-44A9407ED772}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvSpPr/>
+                </xdr:nvSpPr>
+                <xdr:spPr>
+                  <a:xfrm>
+                    <a:off x="4610100" y="685800"/>
+                    <a:ext cx="4320000" cy="2700000"/>
+                  </a:xfrm>
+                  <a:custGeom>
+                    <a:avLst/>
+                    <a:gdLst>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 1319217 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3005133 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 1319217 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 1843083 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3824283 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 747708 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2652717 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 776283 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2681292 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 395292 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3767133 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 404817 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2662242 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3776658 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3728985 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2700380 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 538167 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2690817 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2908061 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX0" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY0" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX1" fmla="*/ 3686175 w 4324350"/>
+                      <a:gd name="connsiteY1" fmla="*/ 9525 h 3162300"/>
+                      <a:gd name="connsiteX2" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY2" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX3" fmla="*/ 4324350 w 4324350"/>
+                      <a:gd name="connsiteY3" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX4" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY4" fmla="*/ 3162300 h 3162300"/>
+                      <a:gd name="connsiteX5" fmla="*/ 0 w 4324350"/>
+                      <a:gd name="connsiteY5" fmla="*/ 0 h 3162300"/>
+                      <a:gd name="connsiteX6" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY6" fmla="*/ 549323 h 3162300"/>
+                      <a:gd name="connsiteX7" fmla="*/ 2949839 w 4324350"/>
+                      <a:gd name="connsiteY7" fmla="*/ 738183 h 3162300"/>
+                      <a:gd name="connsiteX8" fmla="*/ 3757608 w 4324350"/>
+                      <a:gd name="connsiteY8" fmla="*/ 728658 h 3162300"/>
+                      <a:gd name="connsiteX9" fmla="*/ 3757589 w 4324350"/>
+                      <a:gd name="connsiteY9" fmla="*/ 528642 h 3162300"/>
+                      <a:gd name="connsiteX10" fmla="*/ 2942691 w 4324350"/>
+                      <a:gd name="connsiteY10" fmla="*/ 549323 h 3162300"/>
+                    </a:gdLst>
+                    <a:ahLst/>
+                    <a:cxnLst>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX0" y="connsiteY0"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX1" y="connsiteY1"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX2" y="connsiteY2"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX3" y="connsiteY3"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX4" y="connsiteY4"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX5" y="connsiteY5"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX6" y="connsiteY6"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX7" y="connsiteY7"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX8" y="connsiteY8"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX9" y="connsiteY9"/>
+                      </a:cxn>
+                      <a:cxn ang="0">
+                        <a:pos x="connsiteX10" y="connsiteY10"/>
+                      </a:cxn>
+                    </a:cxnLst>
+                    <a:rect l="l" t="t" r="r" b="b"/>
+                    <a:pathLst>
+                      <a:path w="4324350" h="3162300">
+                        <a:moveTo>
+                          <a:pt x="0" y="0"/>
+                        </a:moveTo>
+                        <a:lnTo>
+                          <a:pt x="3686175" y="9525"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="4324350" y="0"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="4324350" y="3162300"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="0" y="3162300"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="0" y="0"/>
+                        </a:lnTo>
+                        <a:close/>
+                        <a:moveTo>
+                          <a:pt x="2942691" y="549323"/>
+                        </a:moveTo>
+                        <a:lnTo>
+                          <a:pt x="2949839" y="738183"/>
+                        </a:lnTo>
+                        <a:lnTo>
+                          <a:pt x="3757608" y="728658"/>
+                        </a:lnTo>
+                        <a:cubicBezTo>
+                          <a:pt x="3757602" y="661986"/>
+                          <a:pt x="3757595" y="595314"/>
+                          <a:pt x="3757589" y="528642"/>
+                        </a:cubicBezTo>
+                        <a:lnTo>
+                          <a:pt x="2942691" y="549323"/>
+                        </a:lnTo>
+                        <a:close/>
+                      </a:path>
+                    </a:pathLst>
+                  </a:custGeom>
+                  <a:blipFill>
+                    <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+                    <a:stretch>
+                      <a:fillRect/>
+                    </a:stretch>
+                  </a:blipFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </xdr:spPr>
+                <xdr:style>
+                  <a:lnRef idx="2">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="50000"/>
+                    </a:schemeClr>
+                  </a:lnRef>
+                  <a:fillRef idx="1">
+                    <a:schemeClr val="accent1"/>
+                  </a:fillRef>
+                  <a:effectRef idx="0">
+                    <a:schemeClr val="accent1"/>
+                  </a:effectRef>
+                  <a:fontRef idx="minor">
+                    <a:schemeClr val="lt1"/>
+                  </a:fontRef>
+                </xdr:style>
+                <xdr:txBody>
+                  <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr algn="l"/>
+                    <a:endParaRPr lang="pt-BR" sz="1100">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </xdr:txBody>
+              </xdr:sp>
+              <xdr:grpSp>
+                <xdr:nvGrpSpPr>
+                  <xdr:cNvPr id="102" name="Grupo 13">
+                    <a:extLst>
+                      <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                        <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD557BA-8A3B-40E4-8ADA-DD70933A32E4}"/>
+                      </a:ext>
+                    </a:extLst>
+                  </xdr:cNvPr>
+                  <xdr:cNvGrpSpPr/>
+                </xdr:nvGrpSpPr>
+                <xdr:grpSpPr>
+                  <a:xfrm>
+                    <a:off x="4645275" y="742950"/>
+                    <a:ext cx="4044455" cy="2162175"/>
+                    <a:chOff x="4645275" y="742950"/>
+                    <a:chExt cx="4044455" cy="2162175"/>
+                  </a:xfrm>
+                </xdr:grpSpPr>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="103" name="CaixaDeTexto 102">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CE53A1-EEDB-4D5C-B346-33E30CB190B3}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="4645275" y="2447924"/>
+                      <a:ext cx="3991702" cy="457201"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1100"/>
+                        <a:t>ENDEREÇO DA IGREJA:</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="104" name="CaixaDeTexto 103">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD38D1F-7AA3-49F9-AC46-F4AB7FD42ED1}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="5012347" y="2038350"/>
+                      <a:ext cx="3524250" cy="238125"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1400" b="1"/>
+                        <a:t>NOME DA IGREJA</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="105" name="CaixaDeTexto 104">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DEF68A-19D3-40F0-B871-09A44C1ED3DB}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="4963991" y="742950"/>
+                      <a:ext cx="3725739" cy="352425"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1600" b="1"/>
+                        <a:t>NOME DO MEMBRO</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+                <xdr:sp macro="" textlink="">
+                  <xdr:nvSpPr>
+                    <xdr:cNvPr id="106" name="CaixaDeTexto 105">
+                      <a:extLst>
+                        <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                          <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{501FE9A7-A6F8-4F28-B575-39144148A01C}"/>
+                        </a:ext>
+                      </a:extLst>
+                    </xdr:cNvPr>
+                    <xdr:cNvSpPr txBox="1"/>
+                  </xdr:nvSpPr>
+                  <xdr:spPr>
+                    <a:xfrm>
+                      <a:off x="7297330" y="1123950"/>
+                      <a:ext cx="381000" cy="200025"/>
+                    </a:xfrm>
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln w="9525" cmpd="sng">
+                      <a:noFill/>
+                    </a:ln>
+                  </xdr:spPr>
+                  <xdr:style>
+                    <a:lnRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:lnRef>
+                    <a:fillRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:fillRef>
+                    <a:effectRef idx="0">
+                      <a:scrgbClr r="0" g="0" b="0"/>
+                    </a:effectRef>
+                    <a:fontRef idx="minor">
+                      <a:schemeClr val="dk1"/>
+                    </a:fontRef>
+                  </xdr:style>
+                  <xdr:txBody>
+                    <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr algn="ctr"/>
+                      <a:r>
+                        <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                        <a:t>Nº</a:t>
+                      </a:r>
+                    </a:p>
+                  </xdr:txBody>
+                </xdr:sp>
+              </xdr:grpSp>
+            </xdr:grpSp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="97" name="CaixaDeTexto 96">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F13B6A0-4BD4-46A6-9135-2CA4108E9456}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="990600" y="1104900"/>
+                  <a:ext cx="2190750" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                    <a:t>MEMBRO DESDE: 00/00/0000</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="98" name="CaixaDeTexto 97">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0A97EC0-61D1-4D40-AA0F-D7D3D10C9DE7}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="981075" y="1323975"/>
+                  <a:ext cx="1908969" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                    <a:t>DATA NASC.: 00/00/0000</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="99" name="CaixaDeTexto 98">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{840029B2-9E2F-41B9-84F3-66CE8A99CE8C}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="942975" y="2466975"/>
+                  <a:ext cx="1908969" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>RESPONSAVEL  DA IGREJA:</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="100" name="CaixaDeTexto 99">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED7E3FAE-0851-4485-A2A1-818CEF556F50}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2828925" y="2457450"/>
+                  <a:ext cx="1908969" cy="266700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+                <a:ln w="9525" cmpd="sng">
+                  <a:noFill/>
+                </a:ln>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="dk1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="pt-BR" sz="1100"/>
+                    <a:t>ASS.</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="95" name="CaixaDeTexto 94">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D796F5F-921D-4CBF-9700-1E5FDA36EA0F}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="3143250" y="1333500"/>
+                <a:ext cx="1908969" cy="266700"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln w="9525" cmpd="sng">
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="dk1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="pt-BR" sz="1100" b="1"/>
+                  <a:t>CPF: 00000000000</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="CaixaDeTexto 90">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB9CC6F8-813C-44E2-8AC4-130E38A439FA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="733425" y="1924050"/>
+            <a:ext cx="1908969" cy="266700"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100" b="1"/>
+              <a:t>CNPJ DA IGREJA:</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2527,10 +6546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="F4:P13"/>
+  <dimension ref="F4:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,6 +6573,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" verticalDpi="0" r:id="rId1"/>
